--- a/pred_ohlcv/54_21/2019-11-01 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>276549.8941741788</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>277890.7806741789</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>266639.5913741788</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>261390.8633741788</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>272392.7973741788</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -938,7 +938,7 @@
         <v>287217.240253839</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>356000.4665512976</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>356000.4665512976</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>361080.3881512975</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>361030.3881512975</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>371481.6643681925</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>371483.7875681925</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>368206.6486681925</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>368910.4396681925</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>358990.3727681925</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>361459.0477681925</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>357845.1242681925</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>338986.0787681925</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>321998.827250183</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>321999.875950183</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>321564.579350183</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>322242.4453501829</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>324368.4453501829</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>324127.4453501829</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>324144.4453501829</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>322102.4453501829</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>322102.4453501829</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>320139.1193501829</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>319506.3016854486</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>319491.1097854486</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>319540.6146854486</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>319490.3641854486</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>327845.6819854486</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>331855.6819854486</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>332908.5971854486</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>333236.8370854486</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>340612.8495854486</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>337045.1383854485</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>334833.8668854486</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>335417.3340854486</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ICX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>277890.7806741789</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,7 +730,7 @@
         <v>284471.1465727963</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -938,7 +938,7 @@
         <v>287217.240253839</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>287217.240253839</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>369082.1307630093</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>356000.4665512976</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>356000.4665512976</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>362148.1804512976</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>361030.3881512975</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>358528.0825512975</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>371483.7875681925</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>368206.6486681925</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>367955.1875681925</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>366391.3438681925</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>358990.3727681925</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>361459.0477681925</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>357845.1242681925</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>338986.0787681925</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>321999.875950183</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>322242.4453501829</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>324368.4453501829</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>324127.4453501829</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>324144.4453501829</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>322102.4453501829</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>322102.4453501829</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>320139.1193501829</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>319506.3016854486</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>319491.1097854486</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>319540.6146854486</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>319490.3641854486</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>327845.6819854486</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>331855.6819854486</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>332908.5971854486</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>333236.8370854486</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>340612.8495854486</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>337045.1383854485</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>334833.8668854486</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>335417.3340854486</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
